--- a/epilog/calc_gamma.xlsx
+++ b/epilog/calc_gamma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uedataiga/Desktop/grad-research/data_analysis/epilog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEB7414-901D-204B-AAAD-23DF38D89559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44EF91E-43EB-D043-A2A2-ADF643BD0ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16120" xr2:uid="{ED6227C8-3361-BD46-A1A6-AA1AC7403E26}"/>
+    <workbookView xWindow="5740" yWindow="6100" windowWidth="28300" windowHeight="16120" xr2:uid="{ED6227C8-3361-BD46-A1A6-AA1AC7403E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>gamma</t>
     <phoneticPr fontId="1"/>
@@ -103,6 +103,14 @@
   </si>
   <si>
     <t>j(Am^(-2))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#1-1398</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CST/CBT(TI)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -487,12 +495,13 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:G12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="5" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -508,6 +517,9 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" spans="1:14">
       <c r="D2" t="s">
@@ -522,6 +534,9 @@
       <c r="G2" t="s">
         <v>2</v>
       </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
@@ -540,11 +555,17 @@
       <c r="G3" s="3">
         <v>2.5000000000000001E-4</v>
       </c>
+      <c r="H3" s="3">
+        <v>2.5000000000000001E-4</v>
+      </c>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D4" s="3">
+        <v>2.0000000000000002E-5</v>
+      </c>
       <c r="E4" s="3">
         <f>100*10^(-6)</f>
         <v>9.9999999999999991E-5</v>
@@ -556,11 +577,17 @@
       <c r="G4" s="3">
         <v>1E-4</v>
       </c>
+      <c r="H4" s="3">
+        <v>1E-4</v>
+      </c>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D5" s="2">
+        <v>2E-8</v>
+      </c>
       <c r="E5" s="2">
         <f>20*10^(-9)</f>
         <v>2E-8</v>
@@ -573,11 +600,19 @@
         <f>20*10^(-9)</f>
         <v>2E-8</v>
       </c>
+      <c r="H5" s="2">
+        <f>20*10^(-9)</f>
+        <v>2E-8</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>11</v>
       </c>
+      <c r="D6">
+        <f>0.084272-(-0.15608)</f>
+        <v>0.24035200000000001</v>
+      </c>
       <c r="E6">
         <v>1</v>
       </c>
@@ -588,11 +623,18 @@
         <f>1-0</f>
         <v>1</v>
       </c>
+      <c r="H6">
+        <f>1-(-1)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>12</v>
       </c>
+      <c r="D7">
+        <v>9.1999999999999998E-2</v>
+      </c>
       <c r="E7">
         <v>0.16</v>
       </c>
@@ -601,14 +643,26 @@
       </c>
       <c r="G7">
         <v>0.41220000000000001</v>
+      </c>
+      <c r="H7">
+        <v>0.19500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1">
-        <v>9.1999999999999998E-2</v>
+      <c r="B8" t="e">
+        <f t="shared" ref="B8:D8" si="0">B7/B3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1839.9999999999998</v>
       </c>
       <c r="E8">
         <f>E7/E3</f>
@@ -619,31 +673,31 @@
         <v>4060</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="F8:M8" si="0">G7/G3</f>
+        <f t="shared" ref="F8:M8" si="1">G7/G3</f>
         <v>1648.8</v>
       </c>
-      <c r="H8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>780</v>
       </c>
       <c r="I8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -652,6 +706,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="4">
+        <f>5*10^(-4)</f>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E9" s="4">
@@ -666,11 +721,27 @@
         <f>1.875*10^(-4) - 1.725*10^(-4)</f>
         <v>1.4999999999999985E-5</v>
       </c>
+      <c r="H9" s="4">
+        <f>-10^(-5) -7*10^(-5)</f>
+        <v>-8.0000000000000007E-5</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>15</v>
       </c>
+      <c r="B10" t="e">
+        <f t="shared" ref="B10:D10" si="2">B9/B3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D10" s="4">
+        <f>D9/D3</f>
+        <v>10</v>
+      </c>
       <c r="E10">
         <f>E9/E3</f>
         <v>6.0000000000000036E-3</v>
@@ -680,31 +751,31 @@
         <v>0.14999999999999986</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="F10:M10" si="1">G9/G3</f>
+        <f t="shared" ref="F10:M10" si="3">G9/G3</f>
         <v>5.9999999999999942E-2</v>
       </c>
-      <c r="H10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>-0.32</v>
       </c>
       <c r="I10" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J10" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K10" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L10" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M10" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -712,44 +783,56 @@
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B11" s="3" t="e">
+        <f t="shared" ref="B11:D11" si="4">B3/(B4*B5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C11" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="4"/>
+        <v>124999999.99999999</v>
+      </c>
       <c r="E11" s="3">
         <f>E3/(E4*E5)</f>
         <v>125000000</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" ref="F11:N11" si="2">F3/(F4*F5)</f>
+        <f t="shared" ref="F11:N11" si="5">F3/(F4*F5)</f>
         <v>100000000</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>125000000</v>
       </c>
-      <c r="H11" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="H11" s="3">
+        <f t="shared" si="5"/>
+        <v>125000000</v>
       </c>
       <c r="I11" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J11" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K11" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L11" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M11" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N11" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -757,88 +840,61 @@
       <c r="A12" t="s">
         <v>0</v>
       </c>
+      <c r="B12" t="e">
+        <f t="shared" ref="B12:D12" si="6">B10/(B8*B6*B11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="6"/>
+        <v>1.8089410893009098E-10</v>
+      </c>
       <c r="E12">
         <f>E10/(E8*E6*E11)</f>
         <v>7.5000000000000046E-14</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:N12" si="3">F10/(F8*F6*F11)</f>
+        <f t="shared" ref="F12:N12" si="7">F10/(F8*F6*F11)</f>
         <v>3.6945812807881738E-13</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.911208151382821E-13</v>
       </c>
-      <c r="H12" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="H12">
+        <f t="shared" si="7"/>
+        <v>-1.6410256410256411E-12</v>
       </c>
       <c r="I12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="E13">
-        <f>(E4*E5*E9)/(E8*E6*(E3)^2)</f>
-        <v>7.5000000000000046E-14</v>
-      </c>
-      <c r="F13" s="1">
-        <f>(F4*F5*F9)/(F8*F6*(F3)^2)</f>
-        <v>3.6945812807881738E-13</v>
-      </c>
-      <c r="G13">
-        <f t="shared" ref="F13:N13" si="4">(G4*G5*G9)/(G8*G6*(G3)^2)</f>
-        <v>2.911208151382821E-13</v>
-      </c>
-      <c r="H13" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K13" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="F13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/epilog/calc_gamma.xlsx
+++ b/epilog/calc_gamma.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uedataiga/Desktop/grad-research/data_analysis/epilog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44EF91E-43EB-D043-A2A2-ADF643BD0ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{356E5B34-5B5C-0B4D-ACBA-723BDB9D63CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="6100" windowWidth="28300" windowHeight="16120" xr2:uid="{ED6227C8-3361-BD46-A1A6-AA1AC7403E26}"/>
+    <workbookView xWindow="500" yWindow="740" windowWidth="28300" windowHeight="16120" xr2:uid="{ED6227C8-3361-BD46-A1A6-AA1AC7403E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -119,9 +120,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="180" formatCode="0.0.E+00"/>
-    <numFmt numFmtId="181" formatCode="0.00.E+00"/>
-    <numFmt numFmtId="184" formatCode="0.000.E+00"/>
+    <numFmt numFmtId="176" formatCode="0.0.E+00"/>
+    <numFmt numFmtId="177" formatCode="0.00.E+00"/>
+    <numFmt numFmtId="178" formatCode="0.000.E+00"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -169,13 +170,13 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -495,7 +496,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -653,15 +654,15 @@
         <v>13</v>
       </c>
       <c r="B8" t="e">
-        <f t="shared" ref="B8:D8" si="0">B7/B3</f>
+        <f>B7/B3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C8" t="e">
-        <f t="shared" si="0"/>
+        <f>C7/C3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f>D7/D3</f>
         <v>1839.9999999999998</v>
       </c>
       <c r="E8">
@@ -673,31 +674,31 @@
         <v>4060</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="F8:M8" si="1">G7/G3</f>
+        <f t="shared" ref="G8:M8" si="0">G7/G3</f>
         <v>1648.8</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>780</v>
       </c>
       <c r="I8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -731,11 +732,11 @@
         <v>15</v>
       </c>
       <c r="B10" t="e">
-        <f t="shared" ref="B10:D10" si="2">B9/B3</f>
+        <f>B9/B3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C10" t="e">
-        <f t="shared" si="2"/>
+        <f>C9/C3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D10" s="4">
@@ -751,31 +752,31 @@
         <v>0.14999999999999986</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="F10:M10" si="3">G9/G3</f>
+        <f t="shared" ref="G10:M10" si="1">G9/G3</f>
         <v>5.9999999999999942E-2</v>
       </c>
       <c r="H10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.32</v>
       </c>
       <c r="I10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -784,15 +785,15 @@
         <v>16</v>
       </c>
       <c r="B11" s="3" t="e">
-        <f t="shared" ref="B11:D11" si="4">B3/(B4*B5)</f>
+        <f>B3/(B4*B5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C11" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>C3/(C4*C5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="4"/>
+        <f>D3/(D4*D5)</f>
         <v>124999999.99999999</v>
       </c>
       <c r="E11" s="3">
@@ -800,39 +801,39 @@
         <v>125000000</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" ref="F11:N11" si="5">F3/(F4*F5)</f>
+        <f t="shared" ref="F11:N11" si="2">F3/(F4*F5)</f>
         <v>100000000</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>125000000</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>125000000</v>
       </c>
       <c r="I11" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J11" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K11" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L11" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M11" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N11" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -841,55 +842,55 @@
         <v>0</v>
       </c>
       <c r="B12" t="e">
-        <f t="shared" ref="B12:D12" si="6">B10/(B8*B6*B11)</f>
+        <f>2*B10/(B8*B6*B11)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="C12:M12" si="3">2*C10/(C8*C6*C11)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D12">
-        <f t="shared" si="6"/>
-        <v>1.8089410893009098E-10</v>
+        <f t="shared" si="3"/>
+        <v>3.6178821786018196E-10</v>
       </c>
       <c r="E12">
-        <f>E10/(E8*E6*E11)</f>
-        <v>7.5000000000000046E-14</v>
+        <f t="shared" si="3"/>
+        <v>1.5000000000000009E-13</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:N12" si="7">F10/(F8*F6*F11)</f>
-        <v>3.6945812807881738E-13</v>
+        <f t="shared" si="3"/>
+        <v>7.3891625615763477E-13</v>
       </c>
       <c r="G12">
-        <f t="shared" si="7"/>
-        <v>2.911208151382821E-13</v>
+        <f t="shared" si="3"/>
+        <v>5.8224163027656421E-13</v>
       </c>
       <c r="H12">
-        <f t="shared" si="7"/>
-        <v>-1.6410256410256411E-12</v>
+        <f t="shared" si="3"/>
+        <v>-3.2820512820512822E-12</v>
       </c>
       <c r="I12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="N12" si="4">N10/(N8*N6*N11)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
